--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="794">
   <si>
     <t>id</t>
   </si>
@@ -3143,6 +3143,39 @@
   </si>
   <si>
     <t>CA-EJ6ZSJD4</t>
+  </si>
+  <si>
+    <t>CA-KWMAIMDW</t>
+  </si>
+  <si>
+    <t>CA-R7GIFD1J</t>
+  </si>
+  <si>
+    <t>CA-O2MQ94QD</t>
+  </si>
+  <si>
+    <t>CA-S78DHH83</t>
+  </si>
+  <si>
+    <t>CA-CFUNBSAW</t>
+  </si>
+  <si>
+    <t>CA-M8PQ6KU6</t>
+  </si>
+  <si>
+    <t>CA-DJXJYTFJ</t>
+  </si>
+  <si>
+    <t>CA-JQPBNPRT</t>
+  </si>
+  <si>
+    <t>CA-GZRTBNIG</t>
+  </si>
+  <si>
+    <t>CA-RWG34YF3</t>
+  </si>
+  <si>
+    <t>CA-5VQT5TDJ</t>
   </si>
 </sst>
 </file>
@@ -3898,7 +3931,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>

--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prod_tms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2A18ED-E2F3-4B9D-BDF8-A6BB7FE5700F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ABF04F-9FB8-4321-9E59-968D8403AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2775" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="788">
   <si>
     <t>id</t>
   </si>
@@ -3127,55 +3127,37 @@
     <t>TO Completed by Provider (Daily)</t>
   </si>
   <si>
-    <t>CA-RUWH6QZT</t>
-  </si>
-  <si>
-    <t>dac</t>
-  </si>
-  <si>
-    <t>Genetic Onboarding</t>
-  </si>
-  <si>
-    <t>CA-S7Y5XP4G</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>CA-EJ6ZSJD4</t>
-  </si>
-  <si>
-    <t>CA-KWMAIMDW</t>
-  </si>
-  <si>
-    <t>CA-R7GIFD1J</t>
-  </si>
-  <si>
-    <t>CA-O2MQ94QD</t>
-  </si>
-  <si>
-    <t>CA-S78DHH83</t>
-  </si>
-  <si>
-    <t>CA-CFUNBSAW</t>
-  </si>
-  <si>
-    <t>CA-M8PQ6KU6</t>
-  </si>
-  <si>
-    <t>CA-DJXJYTFJ</t>
-  </si>
-  <si>
-    <t>CA-JQPBNPRT</t>
-  </si>
-  <si>
-    <t>CA-GZRTBNIG</t>
-  </si>
-  <si>
-    <t>CA-RWG34YF3</t>
-  </si>
-  <si>
-    <t>CA-5VQT5TDJ</t>
+    <t>CA-G65IUX3C</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>CA-98V2XDNK</t>
+  </si>
+  <si>
+    <t>CA-TQOG3FDA</t>
+  </si>
+  <si>
+    <t>CA-YB9QIO71</t>
+  </si>
+  <si>
+    <t>CA-F9FMO20I</t>
+  </si>
+  <si>
+    <t>CA-52U8PBLA</t>
+  </si>
+  <si>
+    <t>CA-P0FVQDKU</t>
+  </si>
+  <si>
+    <t>CA-JURYOMY9</t>
+  </si>
+  <si>
+    <t>CA-6D43VA8T</t>
   </si>
 </sst>
 </file>
@@ -3877,7 +3859,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3931,7 +3913,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>
@@ -3965,8 +3947,8 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="D3" t="s">
-        <v>778</v>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3992,7 +3974,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5">
@@ -4004,7 +3986,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4016,7 +3998,7 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.25">
@@ -4028,7 +4010,7 @@
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="38.25">

--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="972">
   <si>
     <t>id</t>
   </si>
@@ -3158,6 +3158,558 @@
   </si>
   <si>
     <t>CA-6D43VA8T</t>
+  </si>
+  <si>
+    <t>CA-RQ9WM67Q</t>
+  </si>
+  <si>
+    <t>CA-5OM6J42P</t>
+  </si>
+  <si>
+    <t>CA-F8GHVUIL</t>
+  </si>
+  <si>
+    <t>CA-0XROSGBA</t>
+  </si>
+  <si>
+    <t>CA-7OT4VS7Y</t>
+  </si>
+  <si>
+    <t>CA-OJ0R8M92</t>
+  </si>
+  <si>
+    <t>CA-54W2SYGU</t>
+  </si>
+  <si>
+    <t>CA-FZIXDDN7</t>
+  </si>
+  <si>
+    <t>CA-O7KFD6LR</t>
+  </si>
+  <si>
+    <t>CA-DKRF8ZET</t>
+  </si>
+  <si>
+    <t>CA-XNMXOEK9</t>
+  </si>
+  <si>
+    <t>CA-29HP5VEU</t>
+  </si>
+  <si>
+    <t>CA-UNWBTIMU</t>
+  </si>
+  <si>
+    <t>CA-T1OG9CM1</t>
+  </si>
+  <si>
+    <t>CA-LKWJOALV</t>
+  </si>
+  <si>
+    <t>CA-11HSZZOI</t>
+  </si>
+  <si>
+    <t>CA-8MNQM474</t>
+  </si>
+  <si>
+    <t>CA-E2G3U4RV</t>
+  </si>
+  <si>
+    <t>CA-8C66LSF8</t>
+  </si>
+  <si>
+    <t>CA-PUP5K89E</t>
+  </si>
+  <si>
+    <t>CA-2NEXU83Z</t>
+  </si>
+  <si>
+    <t>CA-C4EJRIH9</t>
+  </si>
+  <si>
+    <t>CA-U4XOUPYC</t>
+  </si>
+  <si>
+    <t>CA-NRYZ7BK5</t>
+  </si>
+  <si>
+    <t>CA-99QRXQO0</t>
+  </si>
+  <si>
+    <t>CA-NIL40QM1</t>
+  </si>
+  <si>
+    <t>CA-M4K6XAR6</t>
+  </si>
+  <si>
+    <t>CA-1JD45VKJ</t>
+  </si>
+  <si>
+    <t>CA-8HNI5Q90</t>
+  </si>
+  <si>
+    <t>CA-DD40PN1E</t>
+  </si>
+  <si>
+    <t>CA-BDRHDAIH</t>
+  </si>
+  <si>
+    <t>CA-G3N2A56D</t>
+  </si>
+  <si>
+    <t>CA-LLC3Y16B</t>
+  </si>
+  <si>
+    <t>CA-3OZM8LPX</t>
+  </si>
+  <si>
+    <t>CA-67375L91</t>
+  </si>
+  <si>
+    <t>CA-TYZ4FFKV</t>
+  </si>
+  <si>
+    <t>CA-FKUHFX99</t>
+  </si>
+  <si>
+    <t>CA-UTTROA94</t>
+  </si>
+  <si>
+    <t>CA-D9K80F1U</t>
+  </si>
+  <si>
+    <t>CA-MJR4VLO5</t>
+  </si>
+  <si>
+    <t>CA-LDBNFQZZ</t>
+  </si>
+  <si>
+    <t>CA-2P68MOFD</t>
+  </si>
+  <si>
+    <t>CA-HTLFFNK9</t>
+  </si>
+  <si>
+    <t>CA-RAPK82NV</t>
+  </si>
+  <si>
+    <t>CA-QIHDIEDP</t>
+  </si>
+  <si>
+    <t>CA-S0L0F0FW</t>
+  </si>
+  <si>
+    <t>CA-1XSFLWMG</t>
+  </si>
+  <si>
+    <t>CA-9G5LRNAN</t>
+  </si>
+  <si>
+    <t>CA-IW6QTNSN</t>
+  </si>
+  <si>
+    <t>CA-VPF7L8DN</t>
+  </si>
+  <si>
+    <t>CA-BA2ZDJWS</t>
+  </si>
+  <si>
+    <t>CA-Y9YBYMGQ</t>
+  </si>
+  <si>
+    <t>CA-BGWN233S</t>
+  </si>
+  <si>
+    <t>CA-8B36SYT2</t>
+  </si>
+  <si>
+    <t>CA-9TQH59E4</t>
+  </si>
+  <si>
+    <t>CA-987YR18F</t>
+  </si>
+  <si>
+    <t>CA-7P7MPN44</t>
+  </si>
+  <si>
+    <t>CA-0CYRD34J</t>
+  </si>
+  <si>
+    <t>CA-TZKYO7AH</t>
+  </si>
+  <si>
+    <t>CA-98UQUGFF</t>
+  </si>
+  <si>
+    <t>CA-MBVRGURI</t>
+  </si>
+  <si>
+    <t>CA-M0VHTNKQ</t>
+  </si>
+  <si>
+    <t>CA-89FC9OGA</t>
+  </si>
+  <si>
+    <t>CA-TDSNPWX9</t>
+  </si>
+  <si>
+    <t>CA-UMFXB7CE</t>
+  </si>
+  <si>
+    <t>CA-3S5KBQTX</t>
+  </si>
+  <si>
+    <t>CA-DM87DDWK</t>
+  </si>
+  <si>
+    <t>CA-36LXG43J</t>
+  </si>
+  <si>
+    <t>CA-ZO0NCBZD</t>
+  </si>
+  <si>
+    <t>CA-7R1NGUOH</t>
+  </si>
+  <si>
+    <t>CA-41J3ASG2</t>
+  </si>
+  <si>
+    <t>CA-WXN4N7DK</t>
+  </si>
+  <si>
+    <t>CA-OHTLVP22</t>
+  </si>
+  <si>
+    <t>CA-PBPU2LKC</t>
+  </si>
+  <si>
+    <t>CA-L0P2KHG7</t>
+  </si>
+  <si>
+    <t>CA-GELE43YU</t>
+  </si>
+  <si>
+    <t>CA-79F85B9Q</t>
+  </si>
+  <si>
+    <t>CA-ECGPVZXR</t>
+  </si>
+  <si>
+    <t>CA-682G8DBI</t>
+  </si>
+  <si>
+    <t>CA-DS4DVXTN</t>
+  </si>
+  <si>
+    <t>CA-QQY7SRF1</t>
+  </si>
+  <si>
+    <t>CA-1EEN71VQ</t>
+  </si>
+  <si>
+    <t>CA-ZBWDCY9F</t>
+  </si>
+  <si>
+    <t>CA-85TYKVTN</t>
+  </si>
+  <si>
+    <t>CA-SOL9JMM6</t>
+  </si>
+  <si>
+    <t>CA-8BRRE99X</t>
+  </si>
+  <si>
+    <t>CA-1EQZ183G</t>
+  </si>
+  <si>
+    <t>CA-K6E4RZLA</t>
+  </si>
+  <si>
+    <t>CA-ZNCVO0US</t>
+  </si>
+  <si>
+    <t>CA-JWN754LV</t>
+  </si>
+  <si>
+    <t>CA-5HGKVWEI</t>
+  </si>
+  <si>
+    <t>CA-CPHNT2YU</t>
+  </si>
+  <si>
+    <t>CA-NRZ1A3J4</t>
+  </si>
+  <si>
+    <t>CA-KQ1WKVXB</t>
+  </si>
+  <si>
+    <t>CA-2CNVKYLX</t>
+  </si>
+  <si>
+    <t>CA-2J12CA27</t>
+  </si>
+  <si>
+    <t>CA-OTMBACWB</t>
+  </si>
+  <si>
+    <t>CA-1TES013Z</t>
+  </si>
+  <si>
+    <t>CA-ZB1JU7E4</t>
+  </si>
+  <si>
+    <t>CA-VEWB7R0K</t>
+  </si>
+  <si>
+    <t>CA-S1S0NPVP</t>
+  </si>
+  <si>
+    <t>CA-5D8389DE</t>
+  </si>
+  <si>
+    <t>CA-LIFB8179</t>
+  </si>
+  <si>
+    <t>CA-WGAO75DP</t>
+  </si>
+  <si>
+    <t>CA-9IYZYNSD</t>
+  </si>
+  <si>
+    <t>CA-6VA57TQU</t>
+  </si>
+  <si>
+    <t>CA-NRQ0ICDX</t>
+  </si>
+  <si>
+    <t>CA-LT90HXW8</t>
+  </si>
+  <si>
+    <t>CA-7OSVIJL2</t>
+  </si>
+  <si>
+    <t>CA-4CDTOLRG</t>
+  </si>
+  <si>
+    <t>CA-MCEVL138</t>
+  </si>
+  <si>
+    <t>CA-6A3M83PI</t>
+  </si>
+  <si>
+    <t>CA-PHSAY1MT</t>
+  </si>
+  <si>
+    <t>CA-31TO9LN3</t>
+  </si>
+  <si>
+    <t>CA-F0MU8CEJ</t>
+  </si>
+  <si>
+    <t>CA-135T9ZRF</t>
+  </si>
+  <si>
+    <t>CA-8G4LMM5M</t>
+  </si>
+  <si>
+    <t>CA-N8RHT6YU</t>
+  </si>
+  <si>
+    <t>CA-Q7L0WERD</t>
+  </si>
+  <si>
+    <t>CA-FPIGN018</t>
+  </si>
+  <si>
+    <t>CA-8VACV6UX</t>
+  </si>
+  <si>
+    <t>CA-0XXI0FAS</t>
+  </si>
+  <si>
+    <t>CA-XA0LX96B</t>
+  </si>
+  <si>
+    <t>CA-OPI23O8F</t>
+  </si>
+  <si>
+    <t>CA-IHNZFYUE</t>
+  </si>
+  <si>
+    <t>CA-E0455R0G</t>
+  </si>
+  <si>
+    <t>CA-AGZRSH18</t>
+  </si>
+  <si>
+    <t>CA-30MZHTR2</t>
+  </si>
+  <si>
+    <t>CA-HAMGQ7HT</t>
+  </si>
+  <si>
+    <t>CA-QZ8ML86Z</t>
+  </si>
+  <si>
+    <t>CA-ASSWZS5C</t>
+  </si>
+  <si>
+    <t>CA-R3JM2LMN</t>
+  </si>
+  <si>
+    <t>CA-4VFNH43G</t>
+  </si>
+  <si>
+    <t>CA-DLES14O4</t>
+  </si>
+  <si>
+    <t>CA-WLBHY6U0</t>
+  </si>
+  <si>
+    <t>CA-JP1F1OY4</t>
+  </si>
+  <si>
+    <t>CA-W1K3RCFE</t>
+  </si>
+  <si>
+    <t>CA-7U3GVB76</t>
+  </si>
+  <si>
+    <t>CA-U7GNTYBE</t>
+  </si>
+  <si>
+    <t>CA-LW5PQLVT</t>
+  </si>
+  <si>
+    <t>CA-CBHQDBD4</t>
+  </si>
+  <si>
+    <t>CA-0EU7QW7F</t>
+  </si>
+  <si>
+    <t>CA-7MKGHGFV</t>
+  </si>
+  <si>
+    <t>CA-G8Z61S9Z</t>
+  </si>
+  <si>
+    <t>CA-FPVZWZKY</t>
+  </si>
+  <si>
+    <t>CA-ITPB9P95</t>
+  </si>
+  <si>
+    <t>CA-MSWHHF6P</t>
+  </si>
+  <si>
+    <t>CA-PGPR0J33</t>
+  </si>
+  <si>
+    <t>CA-E22R72BT</t>
+  </si>
+  <si>
+    <t>CA-OWJ9OQG5</t>
+  </si>
+  <si>
+    <t>CA-R3V0QJNM</t>
+  </si>
+  <si>
+    <t>CA-GVIL7RQ4</t>
+  </si>
+  <si>
+    <t>CA-2DI0ZUA7</t>
+  </si>
+  <si>
+    <t>CA-5I4MA1J2</t>
+  </si>
+  <si>
+    <t>CA-F8WK87MC</t>
+  </si>
+  <si>
+    <t>CA-R5S3ECN2</t>
+  </si>
+  <si>
+    <t>CA-FE8X7WDP</t>
+  </si>
+  <si>
+    <t>CA-XWC77RH7</t>
+  </si>
+  <si>
+    <t>CA-60EVXCQA</t>
+  </si>
+  <si>
+    <t>CA-PW2QY4EP</t>
+  </si>
+  <si>
+    <t>CA-FTQESJM7</t>
+  </si>
+  <si>
+    <t>CA-AQR8KZQ5</t>
+  </si>
+  <si>
+    <t>CA-LC5B4K9Q</t>
+  </si>
+  <si>
+    <t>CA-XV0IJHVB</t>
+  </si>
+  <si>
+    <t>CA-41IH2JXP</t>
+  </si>
+  <si>
+    <t>CA-R50WDSRT</t>
+  </si>
+  <si>
+    <t>CA-8OQN12JQ</t>
+  </si>
+  <si>
+    <t>CA-HNKEBWG2</t>
+  </si>
+  <si>
+    <t>CA-I4UY74U5</t>
+  </si>
+  <si>
+    <t>CA-MGBDRLRG</t>
+  </si>
+  <si>
+    <t>CA-VZ9DO7I0</t>
+  </si>
+  <si>
+    <t>CA-MJDL8Q03</t>
+  </si>
+  <si>
+    <t>CA-3PKCRU0I</t>
+  </si>
+  <si>
+    <t>CA-3QR3BE4Y</t>
+  </si>
+  <si>
+    <t>CA-70C902IU</t>
+  </si>
+  <si>
+    <t>CA-MPWMBG5V</t>
+  </si>
+  <si>
+    <t>CA-2R0O7PW8</t>
+  </si>
+  <si>
+    <t>CA-YWUEZM1F</t>
+  </si>
+  <si>
+    <t>CA-F96XDMCF</t>
+  </si>
+  <si>
+    <t>CA-CP4YOKSK</t>
+  </si>
+  <si>
+    <t>CA-YE333HZ5</t>
+  </si>
+  <si>
+    <t>CA-D3P5M17C</t>
+  </si>
+  <si>
+    <t>CA-7ZDC0OF3</t>
+  </si>
+  <si>
+    <t>CA-TT306ERS</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +4465,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>787</v>
+        <v>971</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>

--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1085">
   <si>
     <t>id</t>
   </si>
@@ -3710,6 +3710,345 @@
   </si>
   <si>
     <t>CA-TT306ERS</t>
+  </si>
+  <si>
+    <t>CA-3SVSTKZV</t>
+  </si>
+  <si>
+    <t>CA-H7P2DURB</t>
+  </si>
+  <si>
+    <t>CA-SUDM5YEA</t>
+  </si>
+  <si>
+    <t>CA-2OIV93CL</t>
+  </si>
+  <si>
+    <t>CA-RGZ5EPV5</t>
+  </si>
+  <si>
+    <t>CA-YIYZRIAX</t>
+  </si>
+  <si>
+    <t>CA-4L8BR9H5</t>
+  </si>
+  <si>
+    <t>CA-J0D30UJ6</t>
+  </si>
+  <si>
+    <t>CA-15BXBV6S</t>
+  </si>
+  <si>
+    <t>CA-XM0NBIVP</t>
+  </si>
+  <si>
+    <t>CA-R4JB3THC</t>
+  </si>
+  <si>
+    <t>CA-XE36KIQY</t>
+  </si>
+  <si>
+    <t>CA-DZNNXSAL</t>
+  </si>
+  <si>
+    <t>CA-K7COH3TT</t>
+  </si>
+  <si>
+    <t>CA-B3CSNDLR</t>
+  </si>
+  <si>
+    <t>CA-PQUD7ZMD</t>
+  </si>
+  <si>
+    <t>CA-FN3LERI9</t>
+  </si>
+  <si>
+    <t>CA-Z8N3YZLU</t>
+  </si>
+  <si>
+    <t>CA-D3ZAYU9K</t>
+  </si>
+  <si>
+    <t>CA-EDHI1DMZ</t>
+  </si>
+  <si>
+    <t>CA-SI3KYMNP</t>
+  </si>
+  <si>
+    <t>CA-2MJL3UQI</t>
+  </si>
+  <si>
+    <t>CA-1OHKS0CD</t>
+  </si>
+  <si>
+    <t>CA-VAUHW2RR</t>
+  </si>
+  <si>
+    <t>CA-7KV4OYKY</t>
+  </si>
+  <si>
+    <t>CA-PV6HN4DG</t>
+  </si>
+  <si>
+    <t>CA-RY9UI77E</t>
+  </si>
+  <si>
+    <t>CA-PZERM51D</t>
+  </si>
+  <si>
+    <t>CA-5UIDGBMR</t>
+  </si>
+  <si>
+    <t>CA-2UPMIYWD</t>
+  </si>
+  <si>
+    <t>CA-10IEBTN2</t>
+  </si>
+  <si>
+    <t>CA-XZRFWH41</t>
+  </si>
+  <si>
+    <t>CA-0KF965BD</t>
+  </si>
+  <si>
+    <t>CA-CBLMXF49</t>
+  </si>
+  <si>
+    <t>CA-PQ4XMG79</t>
+  </si>
+  <si>
+    <t>CA-1O3F1PV7</t>
+  </si>
+  <si>
+    <t>CA-3WFK6XSA</t>
+  </si>
+  <si>
+    <t>CA-3K8W43H1</t>
+  </si>
+  <si>
+    <t>CA-OWGC5AYZ</t>
+  </si>
+  <si>
+    <t>CA-ZEVUMMRW</t>
+  </si>
+  <si>
+    <t>CA-DFJXNXCP</t>
+  </si>
+  <si>
+    <t>CA-1ZSPOG7W</t>
+  </si>
+  <si>
+    <t>CA-PPVOPCK0</t>
+  </si>
+  <si>
+    <t>CA-JGS1ZWM1</t>
+  </si>
+  <si>
+    <t>CA-ZXJ5G4L3</t>
+  </si>
+  <si>
+    <t>CA-U6F7Y084</t>
+  </si>
+  <si>
+    <t>CA-63WMAGKT</t>
+  </si>
+  <si>
+    <t>CA-MMLS61HO</t>
+  </si>
+  <si>
+    <t>CA-WRISJ23G</t>
+  </si>
+  <si>
+    <t>CA-A5BF5QF6</t>
+  </si>
+  <si>
+    <t>CA-AGZ2JF5G</t>
+  </si>
+  <si>
+    <t>CA-R275TRC1</t>
+  </si>
+  <si>
+    <t>CA-0LKCIDW3</t>
+  </si>
+  <si>
+    <t>CA-VXKJB2MY</t>
+  </si>
+  <si>
+    <t>CA-P203K7LK</t>
+  </si>
+  <si>
+    <t>CA-9277DB4P</t>
+  </si>
+  <si>
+    <t>CA-LAGIT6CU</t>
+  </si>
+  <si>
+    <t>CA-C2H054S5</t>
+  </si>
+  <si>
+    <t>CA-1YBQ6OJW</t>
+  </si>
+  <si>
+    <t>CA-76YDS19P</t>
+  </si>
+  <si>
+    <t>CA-1E31DI98</t>
+  </si>
+  <si>
+    <t>CA-BJC8D9AX</t>
+  </si>
+  <si>
+    <t>CA-K36G5N8B</t>
+  </si>
+  <si>
+    <t>CA-I3SJEXTB</t>
+  </si>
+  <si>
+    <t>CA-OIX2UCKG</t>
+  </si>
+  <si>
+    <t>CA-OS4D7S8J</t>
+  </si>
+  <si>
+    <t>CA-M2GSHUZV</t>
+  </si>
+  <si>
+    <t>CA-3XXFK7R0</t>
+  </si>
+  <si>
+    <t>CA-9592VSPG</t>
+  </si>
+  <si>
+    <t>CA-UEFWR25P</t>
+  </si>
+  <si>
+    <t>CA-3RRX9544</t>
+  </si>
+  <si>
+    <t>CA-4GRJ8YXP</t>
+  </si>
+  <si>
+    <t>CA-ZRO94EOO</t>
+  </si>
+  <si>
+    <t>CA-3CXTZS0H</t>
+  </si>
+  <si>
+    <t>CA-PPN22OHQ</t>
+  </si>
+  <si>
+    <t>CA-7DHUCBV1</t>
+  </si>
+  <si>
+    <t>CA-ZO1IHZQ3</t>
+  </si>
+  <si>
+    <t>CA-H60JOAO0</t>
+  </si>
+  <si>
+    <t>CA-25JAAJLE</t>
+  </si>
+  <si>
+    <t>CA-R7INWSW7</t>
+  </si>
+  <si>
+    <t>CA-VGI53EI8</t>
+  </si>
+  <si>
+    <t>CA-9OBGA5EV</t>
+  </si>
+  <si>
+    <t>CA-8A5AHJ41</t>
+  </si>
+  <si>
+    <t>CA-IDJ8P6QN</t>
+  </si>
+  <si>
+    <t>CA-ONTGVQCD</t>
+  </si>
+  <si>
+    <t>CA-LVF7PTLO</t>
+  </si>
+  <si>
+    <t>CA-PRASHFJV</t>
+  </si>
+  <si>
+    <t>CA-V4B0G4VZ</t>
+  </si>
+  <si>
+    <t>CA-W8TURZHN</t>
+  </si>
+  <si>
+    <t>CA-8TSDJNFV</t>
+  </si>
+  <si>
+    <t>CA-NWTSL4CU</t>
+  </si>
+  <si>
+    <t>CA-P87QEX1F</t>
+  </si>
+  <si>
+    <t>CA-C3IQQVQW</t>
+  </si>
+  <si>
+    <t>CA-SFMQ7YJG</t>
+  </si>
+  <si>
+    <t>CA-9IG6CQUM</t>
+  </si>
+  <si>
+    <t>CA-2LALAVXX</t>
+  </si>
+  <si>
+    <t>CA-ZVHCX5IN</t>
+  </si>
+  <si>
+    <t>CA-ENUW2FED</t>
+  </si>
+  <si>
+    <t>CA-2GHEJ6JV</t>
+  </si>
+  <si>
+    <t>CA-JHF8ZFYK</t>
+  </si>
+  <si>
+    <t>CA-XS8EBB65</t>
+  </si>
+  <si>
+    <t>CA-BXY289X8</t>
+  </si>
+  <si>
+    <t>CA-V25KEV4C</t>
+  </si>
+  <si>
+    <t>CA-GMO56F57</t>
+  </si>
+  <si>
+    <t>CA-BSYHJCUK</t>
+  </si>
+  <si>
+    <t>CA-GMYLQ400</t>
+  </si>
+  <si>
+    <t>CA-ALLQJ02X</t>
+  </si>
+  <si>
+    <t>CA-V65T6WPS</t>
+  </si>
+  <si>
+    <t>CA-BUFXRBJD</t>
+  </si>
+  <si>
+    <t>CA-TCO5BEMC</t>
+  </si>
+  <si>
+    <t>CA-PWLYCAFG</t>
+  </si>
+  <si>
+    <t>CA-PBVFTLQE</t>
+  </si>
+  <si>
+    <t>CA-WNFU2UD1</t>
   </si>
 </sst>
 </file>
@@ -4465,7 +4804,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>

--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1098">
   <si>
     <t>id</t>
   </si>
@@ -4049,6 +4049,45 @@
   </si>
   <si>
     <t>CA-WNFU2UD1</t>
+  </si>
+  <si>
+    <t>CA-FZLFN4EG</t>
+  </si>
+  <si>
+    <t>CA-521V3H71</t>
+  </si>
+  <si>
+    <t>CA-AGS73H40</t>
+  </si>
+  <si>
+    <t>CA-UE86VX8H</t>
+  </si>
+  <si>
+    <t>CA-9X7C0WSY</t>
+  </si>
+  <si>
+    <t>CA-WJ2SZVXS</t>
+  </si>
+  <si>
+    <t>CA-F6HMLMWI</t>
+  </si>
+  <si>
+    <t>CA-LORE0XHR</t>
+  </si>
+  <si>
+    <t>CA-FS9D50TA</t>
+  </si>
+  <si>
+    <t>CA-KGBKBMYF</t>
+  </si>
+  <si>
+    <t>CA-VI6YSWTM</t>
+  </si>
+  <si>
+    <t>CA-V12RTCI4</t>
+  </si>
+  <si>
+    <t>CA-174XFQ2I</t>
   </si>
 </sst>
 </file>
@@ -4804,7 +4843,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>

--- a/target/test-classes/Onboarding.xlsx
+++ b/target/test-classes/Onboarding.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1102">
   <si>
     <t>id</t>
   </si>
@@ -4088,6 +4088,18 @@
   </si>
   <si>
     <t>CA-174XFQ2I</t>
+  </si>
+  <si>
+    <t>CA-M663LAED</t>
+  </si>
+  <si>
+    <t>CA-DVQ2NL0F</t>
+  </si>
+  <si>
+    <t>CA-MP6BMT24</t>
+  </si>
+  <si>
+    <t>CA-HFN27SE1</t>
   </si>
 </sst>
 </file>
@@ -4843,7 +4855,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>779</v>
